--- a/data/trans_dic/P22$mutuaSPriv-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01496213689094454</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03114309495707504</v>
+        <v>0.03114309495707503</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001722107336893672</v>
+        <v>0.001709027141571115</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008777801122622393</v>
+        <v>0.0083156648000714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007856273511861614</v>
+        <v>0.009749376227807518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01411933872570941</v>
+        <v>0.01423834647418981</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009795362857346087</v>
+        <v>0.009696084366520747</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002381090185767293</v>
+        <v>0.002391441159060727</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.00489093176739301</v>
+        <v>0.004968265202857468</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007309152488432898</v>
+        <v>0.007160499652317666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006258805399867249</v>
+        <v>0.00632666654839662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008407800600512837</v>
+        <v>0.008418986497855869</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01495994250337233</v>
+        <v>0.01388284162914846</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01743476929209356</v>
+        <v>0.01787325770079588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03950069842662662</v>
+        <v>0.03652667700379642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03786084066440965</v>
+        <v>0.04099230317924833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08983876005601212</v>
+        <v>0.08594877801513771</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03646852748669155</v>
+        <v>0.0370157902093053</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01808966693250113</v>
+        <v>0.01609930335859062</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02098421707314264</v>
+        <v>0.02326975472396033</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05230468559046273</v>
+        <v>0.05024527450919263</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02065701720119311</v>
+        <v>0.02223902937620535</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0245205291162598</v>
+        <v>0.02263981739992581</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02560959907405646</v>
+        <v>0.02487178669203083</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06009814244920948</v>
+        <v>0.05874220201753002</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01796288074200957</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02359937484133437</v>
+        <v>0.02359937484133438</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01800888731925573</v>
+        <v>0.01878811441793651</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01412833356520946</v>
+        <v>0.01571479339011448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007988180808028688</v>
+        <v>0.008595376238941176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002814660326682606</v>
+        <v>0.004939732118638939</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01274215208093771</v>
+        <v>0.01158281195805054</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007944234106655698</v>
+        <v>0.008046633676649633</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0102542873574221</v>
+        <v>0.008951681074158465</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01894810020497227</v>
+        <v>0.01789655316855671</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01903515350091161</v>
+        <v>0.01815000077784951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01421448641416229</v>
+        <v>0.01419241820222863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01197984633617553</v>
+        <v>0.01130416907127915</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01486454316185019</v>
+        <v>0.01478597953742033</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04456801552618188</v>
+        <v>0.0478359308726955</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0379459415296599</v>
+        <v>0.03893968911117918</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02920700013634912</v>
+        <v>0.03027581200468337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03857248886486704</v>
+        <v>0.03710361667015642</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03725897057142492</v>
+        <v>0.03521770327526465</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03024499320487427</v>
+        <v>0.03035551962827044</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0331907307479922</v>
+        <v>0.03447445681916883</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05516355674179431</v>
+        <v>0.05290853229407334</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03815429181663885</v>
+        <v>0.03666040567042165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03003298743437094</v>
+        <v>0.03042820200858316</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02795076701453468</v>
+        <v>0.02725544533555529</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03717141783526387</v>
+        <v>0.03753132915642696</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01158753398131182</v>
+        <v>0.01167106650184074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01853876795320311</v>
+        <v>0.01825337903211207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01128823407425824</v>
+        <v>0.01134375317695523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009090200053049462</v>
+        <v>0.008859071616237106</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005577220368810825</v>
+        <v>0.005503115133054549</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01873146182853415</v>
+        <v>0.01776920454884149</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01273314826341975</v>
+        <v>0.01269329571005544</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01665827469761989</v>
+        <v>0.01582147763555692</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01045874999384819</v>
+        <v>0.01072234328500005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02209772549662029</v>
+        <v>0.02079444165622344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01486723674838699</v>
+        <v>0.01463591317056792</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01586283329059457</v>
+        <v>0.01510471065526975</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03568766990987422</v>
+        <v>0.0368232182091611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04618406697680947</v>
+        <v>0.04588419861598449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03837967471524702</v>
+        <v>0.03814323474319709</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0334326791756671</v>
+        <v>0.03567707720260154</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02226218329900101</v>
+        <v>0.02210104499417044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04623582238392349</v>
+        <v>0.04632129242335552</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03615299138183349</v>
+        <v>0.03621051119123431</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03824205952338596</v>
+        <v>0.03811472877490255</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02544889244486225</v>
+        <v>0.02553573547043289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04064016832502403</v>
+        <v>0.04057349987222889</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03230830568047751</v>
+        <v>0.03211922908303058</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03238714254520055</v>
+        <v>0.03150470743986399</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02924455455569838</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03536799633071719</v>
+        <v>0.03536799633071717</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03006243587299457</v>
@@ -1105,7 +1105,7 @@
         <v>0.02442086795700324</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03175044206404355</v>
+        <v>0.03175044206404356</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01175520786851678</v>
+        <v>0.0113116548150994</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009182009902800178</v>
+        <v>0.008776026798510887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01669708205887539</v>
+        <v>0.01732611638778577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02185171727897969</v>
+        <v>0.0228874850594758</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01651394914105189</v>
+        <v>0.01705780693629151</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01573619038214604</v>
+        <v>0.01733516138410578</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009972489013102621</v>
+        <v>0.01115977193142397</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02012068921325443</v>
+        <v>0.01984030855112942</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01734173035732274</v>
+        <v>0.01724044177766355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01622794238722101</v>
+        <v>0.01541736556383559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01664701576837691</v>
+        <v>0.0168789425884352</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02373193412956064</v>
+        <v>0.0237539071954918</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04040552793289845</v>
+        <v>0.0386764913149724</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0370872401429446</v>
+        <v>0.03752064240733231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04540025333925229</v>
+        <v>0.0483203248363781</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05508556772329699</v>
+        <v>0.05147953923116615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04795760937077384</v>
+        <v>0.04943403851377762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05041516499573628</v>
+        <v>0.05180907844905065</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03252767057925345</v>
+        <v>0.03280887036550779</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03968204181202166</v>
+        <v>0.03849582142864533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03815671889797353</v>
+        <v>0.03767178162602539</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03961939312401737</v>
+        <v>0.0363623958779487</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03522033446357385</v>
+        <v>0.03431943139057692</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04230739302124668</v>
+        <v>0.04152805126876023</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.0200524842297484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03052648752825428</v>
+        <v>0.03052648752825427</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03155232955182138</v>
@@ -1229,7 +1229,7 @@
         <v>0.01917059500427416</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02588285829847145</v>
+        <v>0.02588285829847146</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02871995554275724</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01133927539069823</v>
+        <v>0.01290325670399563</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007569375116476705</v>
+        <v>0.007465845151703399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01066099691094186</v>
+        <v>0.009282492799376124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01996186404246079</v>
+        <v>0.0192907341235754</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01739069406217895</v>
+        <v>0.01748895691612007</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004313203717603442</v>
+        <v>0.004621970138412188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008485926805737815</v>
+        <v>0.008521526493841251</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01694326222747489</v>
+        <v>0.01671767392584699</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01785947238488619</v>
+        <v>0.01858497968313459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008031482861207893</v>
+        <v>0.007662919367347566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01139823066405648</v>
+        <v>0.01197009730152879</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02052010924377201</v>
+        <v>0.02090026211061272</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04755519773792354</v>
+        <v>0.0507821227104299</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04185105156189876</v>
+        <v>0.03863267500909171</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03560754214486025</v>
+        <v>0.03601198963129604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04591926615901037</v>
+        <v>0.04346332875934321</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05166390785411772</v>
+        <v>0.05351404553743309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02625040098716967</v>
+        <v>0.02630544183860343</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04032978210620799</v>
+        <v>0.03905420871878015</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03760389691428943</v>
+        <v>0.03640611411674134</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04267337343102506</v>
+        <v>0.04305343402573242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02642836505848969</v>
+        <v>0.02661809314803529</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03182928792170482</v>
+        <v>0.03199813235347088</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0373514142662616</v>
+        <v>0.03641907277928356</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009543642238855711</v>
+        <v>0.009603149259675113</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009681739146776438</v>
+        <v>0.009168511741327278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002767087005136554</v>
+        <v>0.002754428472747152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02535674016592658</v>
+        <v>0.02724905348526331</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01026157229060601</v>
+        <v>0.01078055414013589</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.00301313126484774</v>
+        <v>0.002758152222511225</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005411257336071854</v>
+        <v>0.005440234786877253</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01670045345288808</v>
+        <v>0.01728846142982995</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01366650535618768</v>
+        <v>0.01206384902343399</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.009044010255555134</v>
+        <v>0.008755109121233342</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.006440765513211265</v>
+        <v>0.006415396753649966</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02464294308758567</v>
+        <v>0.02470572491588105</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0443386784957471</v>
+        <v>0.04585885896043623</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06064189188670721</v>
+        <v>0.05929919908201334</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02894654360859948</v>
+        <v>0.02969820141577078</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06051476108385305</v>
+        <v>0.06309243691598734</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04155634927103943</v>
+        <v>0.04274824760831378</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02823276227710416</v>
+        <v>0.02736328087558393</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03507637732831144</v>
+        <v>0.03201231163994793</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04118506914998375</v>
+        <v>0.04115610590632686</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03607701137828684</v>
+        <v>0.03458890360664497</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03574698584071963</v>
+        <v>0.03420969608896231</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02455103080574362</v>
+        <v>0.02454405465666877</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0446688479538322</v>
+        <v>0.04498619580786565</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.01117276655826046</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.01808098944417484</v>
+        <v>0.01808098944417483</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003567859874669984</v>
+        <v>0.003583319652703339</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.008675410090804437</v>
+        <v>0.006142393154059892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01424497643174592</v>
+        <v>0.01534750208759851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002756400507738348</v>
+        <v>0.00274304599368168</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004960665271932553</v>
+        <v>0.005043154375670762</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.005551497428858861</v>
+        <v>0.005825248524990671</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.003750260307314231</v>
+        <v>0.004658128152420529</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.004724143102705525</v>
+        <v>0.004652825653511715</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.005101909099283456</v>
+        <v>0.004960952126001817</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01159592247163919</v>
+        <v>0.01119269492766664</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03282043321656162</v>
+        <v>0.03366261292048473</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02829076921470445</v>
+        <v>0.02818707994248305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04014537266469411</v>
+        <v>0.03724823462061611</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04454611658782902</v>
+        <v>0.04728234574540016</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02496320754994546</v>
+        <v>0.02456783745375894</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03585448463169871</v>
+        <v>0.04552413054727303</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02175822869426587</v>
+        <v>0.0226726456069286</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02266923862647317</v>
+        <v>0.02380323247828615</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02300519702102305</v>
+        <v>0.0215314168504398</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02813827324016837</v>
+        <v>0.02827866027058361</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02324325248913513</v>
+        <v>0.02207115187465935</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02769902908645989</v>
+        <v>0.02721254461410814</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.01684021372343114</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.02524756570201811</v>
+        <v>0.02524756570201812</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.02111270282602259</v>
@@ -1649,7 +1649,7 @@
         <v>0.01874020404678483</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02717683336804382</v>
+        <v>0.02717683336804381</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01716725408749016</v>
+        <v>0.01739179500325085</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01597686030549271</v>
+        <v>0.01639614548125106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02306512664005059</v>
+        <v>0.0234356419320887</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01415501032243655</v>
+        <v>0.01381532839881635</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01325096155982227</v>
+        <v>0.0128351294274809</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0210326492188282</v>
+        <v>0.02117527927408592</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01686747517256848</v>
+        <v>0.01718269304972934</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01556939689635597</v>
+        <v>0.01573129365782322</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02350089482429639</v>
+        <v>0.02354427146744333</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02873754901468104</v>
+        <v>0.02848585349785329</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02589410456963462</v>
+        <v>0.02595075834851577</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03663773220104943</v>
+        <v>0.0366325391653606</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02473820169152301</v>
+        <v>0.02424202754594944</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02219278475277642</v>
+        <v>0.02168162697612598</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03049189505777665</v>
+        <v>0.03048789942205974</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02434047841880316</v>
+        <v>0.02454695256297445</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02233252796408997</v>
+        <v>0.02249227103648036</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03110763019590753</v>
+        <v>0.03199598862097031</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3978</v>
+        <v>3768</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3281</v>
+        <v>4071</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5758</v>
+        <v>5806</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4579</v>
+        <v>4533</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1773</v>
+        <v>1801</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7021</v>
+        <v>6879</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5529</v>
+        <v>5589</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6839</v>
+        <v>6848</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11524</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8598</v>
+        <v>8814</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17900</v>
+        <v>16553</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15811</v>
+        <v>17119</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36636</v>
+        <v>35049</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17049</v>
+        <v>17304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7783</v>
+        <v>6926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8305</v>
+        <v>9209</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18961</v>
+        <v>18215</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19844</v>
+        <v>21363</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21661</v>
+        <v>20000</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20830</v>
+        <v>20230</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>46294</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13200</v>
+        <v>13771</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9707</v>
+        <v>10797</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4717</v>
+        <v>5076</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1342</v>
+        <v>2356</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7970</v>
+        <v>7245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4848</v>
+        <v>4910</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5760</v>
+        <v>5028</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9474</v>
+        <v>8949</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25859</v>
+        <v>24656</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18441</v>
+        <v>18412</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13803</v>
+        <v>13024</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14521</v>
+        <v>14445</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32668</v>
+        <v>35063</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26072</v>
+        <v>26755</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17247</v>
+        <v>17878</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18395</v>
+        <v>17694</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23305</v>
+        <v>22028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18457</v>
+        <v>18525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18643</v>
+        <v>19364</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27583</v>
+        <v>26455</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51832</v>
+        <v>49802</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>38963</v>
+        <v>39476</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32204</v>
+        <v>31403</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36313</v>
+        <v>36665</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7401</v>
+        <v>7454</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12641</v>
+        <v>12446</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7542</v>
+        <v>7579</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5644</v>
+        <v>5500</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3847</v>
+        <v>3796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13315</v>
+        <v>12631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8422</v>
+        <v>8395</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10364</v>
+        <v>9843</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13894</v>
+        <v>14244</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30776</v>
+        <v>28961</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19767</v>
+        <v>19459</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19717</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22793</v>
+        <v>23518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31491</v>
+        <v>31287</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25644</v>
+        <v>25486</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20756</v>
+        <v>22150</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15355</v>
+        <v>15244</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32867</v>
+        <v>32927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23911</v>
+        <v>23949</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23792</v>
+        <v>23713</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>33807</v>
+        <v>33922</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>56600</v>
+        <v>56507</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42955</v>
+        <v>42704</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40256</v>
+        <v>39160</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6089</v>
+        <v>5860</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5643</v>
+        <v>5394</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10787</v>
+        <v>11194</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15310</v>
+        <v>16035</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8496</v>
+        <v>8776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9697</v>
+        <v>10682</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6463</v>
+        <v>7233</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14827</v>
+        <v>14620</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17905</v>
+        <v>17800</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19974</v>
+        <v>18976</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>21544</v>
+        <v>21844</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>34115</v>
+        <v>34146</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20931</v>
+        <v>20035</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22794</v>
+        <v>23061</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29331</v>
+        <v>31217</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38594</v>
+        <v>36067</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24672</v>
+        <v>25432</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31066</v>
+        <v>31925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21081</v>
+        <v>21263</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29241</v>
+        <v>28367</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39396</v>
+        <v>38895</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48764</v>
+        <v>44755</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45580</v>
+        <v>44414</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>60817</v>
+        <v>59697</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4385</v>
+        <v>4990</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3251</v>
+        <v>3206</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5072</v>
+        <v>4416</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12164</v>
+        <v>11755</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7011</v>
+        <v>7050</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1931</v>
+        <v>2070</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4216</v>
+        <v>4234</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10304</v>
+        <v>10167</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14106</v>
+        <v>14679</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7045</v>
+        <v>6722</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>11086</v>
+        <v>11643</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>24983</v>
+        <v>25446</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18390</v>
+        <v>19638</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17972</v>
+        <v>16590</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16942</v>
+        <v>17134</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27981</v>
+        <v>26484</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20828</v>
+        <v>21574</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11755</v>
+        <v>11780</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20038</v>
+        <v>19404</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22868</v>
+        <v>22140</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33706</v>
+        <v>34006</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23184</v>
+        <v>23350</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30958</v>
+        <v>31123</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>45475</v>
+        <v>44339</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2792</v>
+        <v>2810</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2999</v>
+        <v>2840</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10322</v>
+        <v>11093</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3519</v>
+        <v>3697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1067</v>
+        <v>976</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2035</v>
+        <v>2046</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7334</v>
+        <v>7593</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8685</v>
+        <v>7667</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6003</v>
+        <v>5811</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4575</v>
+        <v>4557</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>20854</v>
+        <v>20907</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12973</v>
+        <v>13418</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18786</v>
+        <v>18370</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9678</v>
+        <v>9929</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24634</v>
+        <v>25684</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14251</v>
+        <v>14660</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9994</v>
+        <v>9686</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13191</v>
+        <v>12039</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>18087</v>
+        <v>18074</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22928</v>
+        <v>21982</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>23728</v>
+        <v>22708</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>17441</v>
+        <v>17436</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>37801</v>
+        <v>38069</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2230</v>
+        <v>1579</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4419</v>
+        <v>4761</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1930</v>
+        <v>1962</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2579</v>
+        <v>2706</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2032</v>
+        <v>2524</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3018</v>
+        <v>2972</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3346</v>
+        <v>3254</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>8985</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6828</v>
+        <v>7003</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7068</v>
+        <v>7043</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10317</v>
+        <v>9573</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13818</v>
+        <v>14667</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8335</v>
+        <v>8203</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13947</v>
+        <v>17708</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8679</v>
+        <v>9044</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10532</v>
+        <v>11059</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12468</v>
+        <v>11669</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>17976</v>
+        <v>18065</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>15245</v>
+        <v>14476</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>21461</v>
+        <v>21084</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>58812</v>
+        <v>59581</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>54153</v>
+        <v>55574</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>81484</v>
+        <v>82793</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>50368</v>
+        <v>49159</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>46892</v>
+        <v>45420</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>78525</v>
+        <v>79057</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>117804</v>
+        <v>120006</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>107868</v>
+        <v>108989</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>170763</v>
+        <v>171078</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>98449</v>
+        <v>97587</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>87766</v>
+        <v>87958</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>129432</v>
+        <v>129414</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>88026</v>
+        <v>86261</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>78534</v>
+        <v>76726</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>113840</v>
+        <v>113825</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>169997</v>
+        <v>171439</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>154724</v>
+        <v>155830</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>226035</v>
+        <v>232490</v>
       </c>
     </row>
     <row r="36">
